--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vtn-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vtn-Itgb8.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>7.134618000000001</v>
+        <v>5.835941000000001</v>
       </c>
       <c r="H2">
-        <v>21.403854</v>
+        <v>17.507823</v>
       </c>
       <c r="I2">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117328</v>
       </c>
       <c r="J2">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117327</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1126243333333333</v>
+        <v>0.008446</v>
       </c>
       <c r="N2">
-        <v>0.337873</v>
+        <v>0.025338</v>
       </c>
       <c r="O2">
-        <v>0.01082936903163217</v>
+        <v>0.001125187475737063</v>
       </c>
       <c r="P2">
-        <v>0.01082936903163217</v>
+        <v>0.001125187475737063</v>
       </c>
       <c r="Q2">
-        <v>0.803531595838</v>
+        <v>0.04929035768600001</v>
       </c>
       <c r="R2">
-        <v>7.231784362542</v>
+        <v>0.443613219174</v>
       </c>
       <c r="S2">
-        <v>0.001045378399855641</v>
+        <v>4.099781828723838E-05</v>
       </c>
       <c r="T2">
-        <v>0.001045378399855641</v>
+        <v>4.099781828723838E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>7.134618000000001</v>
+        <v>5.835941000000001</v>
       </c>
       <c r="H3">
-        <v>21.403854</v>
+        <v>17.507823</v>
       </c>
       <c r="I3">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117328</v>
       </c>
       <c r="J3">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117327</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>3.323421</v>
       </c>
       <c r="N3">
-        <v>9.970263000000001</v>
+        <v>9.970262999999999</v>
       </c>
       <c r="O3">
-        <v>0.3195628457125253</v>
+        <v>0.4427506139949732</v>
       </c>
       <c r="P3">
-        <v>0.3195628457125253</v>
+        <v>0.4427506139949733</v>
       </c>
       <c r="Q3">
-        <v>23.711339288178</v>
+        <v>19.395288874161</v>
       </c>
       <c r="R3">
-        <v>213.402053593602</v>
+        <v>174.557599867449</v>
       </c>
       <c r="S3">
-        <v>0.03084797418284357</v>
+        <v>0.01613225316717879</v>
       </c>
       <c r="T3">
-        <v>0.03084797418284357</v>
+        <v>0.01613225316717879</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>7.134618000000001</v>
+        <v>5.835941000000001</v>
       </c>
       <c r="H4">
-        <v>21.403854</v>
+        <v>17.507823</v>
       </c>
       <c r="I4">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117328</v>
       </c>
       <c r="J4">
-        <v>0.09653179209260773</v>
+        <v>0.03643643319117327</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.963852666666665</v>
+        <v>4.174437666666667</v>
       </c>
       <c r="N4">
-        <v>20.891558</v>
+        <v>12.523313</v>
       </c>
       <c r="O4">
-        <v>0.6696077852558425</v>
+        <v>0.5561241985292896</v>
       </c>
       <c r="P4">
-        <v>0.6696077852558425</v>
+        <v>0.5561241985292896</v>
       </c>
       <c r="Q4">
-        <v>49.68442858494799</v>
+        <v>24.36177193084434</v>
       </c>
       <c r="R4">
-        <v>447.159857264532</v>
+        <v>219.255947377599</v>
       </c>
       <c r="S4">
-        <v>0.06463843950990851</v>
+        <v>0.02026318220570724</v>
       </c>
       <c r="T4">
-        <v>0.06463843950990851</v>
+        <v>0.02026318220570724</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.50798033333333</v>
+        <v>17.50798033333334</v>
       </c>
       <c r="H5">
-        <v>52.52394099999999</v>
+        <v>52.52394100000001</v>
       </c>
       <c r="I5">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="J5">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1126243333333333</v>
+        <v>0.008446</v>
       </c>
       <c r="N5">
-        <v>0.337873</v>
+        <v>0.025338</v>
       </c>
       <c r="O5">
-        <v>0.01082936903163217</v>
+        <v>0.001125187475737063</v>
       </c>
       <c r="P5">
-        <v>0.01082936903163217</v>
+        <v>0.001125187475737063</v>
       </c>
       <c r="Q5">
-        <v>1.971824613054778</v>
+        <v>0.1478724018953333</v>
       </c>
       <c r="R5">
-        <v>17.746421517493</v>
+        <v>1.330851617058</v>
       </c>
       <c r="S5">
-        <v>0.002565304052096978</v>
+        <v>0.0001229945601373529</v>
       </c>
       <c r="T5">
-        <v>0.002565304052096977</v>
+        <v>0.0001229945601373529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.50798033333333</v>
+        <v>17.50798033333334</v>
       </c>
       <c r="H6">
-        <v>52.52394099999999</v>
+        <v>52.52394100000001</v>
       </c>
       <c r="I6">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="J6">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>3.323421</v>
       </c>
       <c r="N6">
-        <v>9.970263000000001</v>
+        <v>9.970262999999999</v>
       </c>
       <c r="O6">
-        <v>0.3195628457125253</v>
+        <v>0.4427506139949732</v>
       </c>
       <c r="P6">
-        <v>0.3195628457125253</v>
+        <v>0.4427506139949733</v>
       </c>
       <c r="Q6">
-        <v>58.186389507387</v>
+        <v>58.18638950738701</v>
       </c>
       <c r="R6">
-        <v>523.677505566483</v>
+        <v>523.6775055664831</v>
       </c>
       <c r="S6">
-        <v>0.075699319195001</v>
+        <v>0.04839719441703071</v>
       </c>
       <c r="T6">
-        <v>0.07569931919500099</v>
+        <v>0.04839719441703071</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.50798033333333</v>
+        <v>17.50798033333334</v>
       </c>
       <c r="H7">
-        <v>52.52394099999999</v>
+        <v>52.52394100000001</v>
       </c>
       <c r="I7">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="J7">
-        <v>0.2368839813846793</v>
+        <v>0.1093102818770573</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.963852666666665</v>
+        <v>4.174437666666667</v>
       </c>
       <c r="N7">
-        <v>20.891558</v>
+        <v>12.523313</v>
       </c>
       <c r="O7">
-        <v>0.6696077852558425</v>
+        <v>0.5561241985292896</v>
       </c>
       <c r="P7">
-        <v>0.6696077852558425</v>
+        <v>0.5561241985292896</v>
       </c>
       <c r="Q7">
-        <v>121.9229955322309</v>
+        <v>73.0859725707259</v>
       </c>
       <c r="R7">
-        <v>1097.306959790078</v>
+        <v>657.7737531365331</v>
       </c>
       <c r="S7">
-        <v>0.1586193581375814</v>
+        <v>0.06079009289988922</v>
       </c>
       <c r="T7">
-        <v>0.1586193581375814</v>
+        <v>0.06079009289988922</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.26691733333334</v>
+        <v>136.8238143333333</v>
       </c>
       <c r="H8">
-        <v>147.800752</v>
+        <v>410.471443</v>
       </c>
       <c r="I8">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="J8">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1126243333333333</v>
+        <v>0.008446</v>
       </c>
       <c r="N8">
-        <v>0.337873</v>
+        <v>0.025338</v>
       </c>
       <c r="O8">
-        <v>0.01082936903163217</v>
+        <v>0.001125187475737063</v>
       </c>
       <c r="P8">
-        <v>0.01082936903163217</v>
+        <v>0.001125187475737063</v>
       </c>
       <c r="Q8">
-        <v>5.548653720055111</v>
+        <v>1.155613935859333</v>
       </c>
       <c r="R8">
-        <v>49.93788348049601</v>
+        <v>10.400525422734</v>
       </c>
       <c r="S8">
-        <v>0.007218686579679551</v>
+        <v>0.0009611950973124714</v>
       </c>
       <c r="T8">
-        <v>0.007218686579679551</v>
+        <v>0.0009611950973124714</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>49.26691733333334</v>
+        <v>136.8238143333333</v>
       </c>
       <c r="H9">
-        <v>147.800752</v>
+        <v>410.471443</v>
       </c>
       <c r="I9">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="J9">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>3.323421</v>
       </c>
       <c r="N9">
-        <v>9.970263000000001</v>
+        <v>9.970262999999999</v>
       </c>
       <c r="O9">
-        <v>0.3195628457125253</v>
+        <v>0.4427506139949732</v>
       </c>
       <c r="P9">
-        <v>0.3195628457125253</v>
+        <v>0.4427506139949733</v>
       </c>
       <c r="Q9">
-        <v>163.734707670864</v>
+        <v>454.723137855501</v>
       </c>
       <c r="R9">
-        <v>1473.612369037776</v>
+        <v>4092.508240699509</v>
       </c>
       <c r="S9">
-        <v>0.2130155523346808</v>
+        <v>0.3782211664107638</v>
       </c>
       <c r="T9">
-        <v>0.2130155523346808</v>
+        <v>0.3782211664107638</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.26691733333334</v>
+        <v>136.8238143333333</v>
       </c>
       <c r="H10">
-        <v>147.800752</v>
+        <v>410.471443</v>
       </c>
       <c r="I10">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="J10">
-        <v>0.666584226522713</v>
+        <v>0.8542532849317694</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.963852666666665</v>
+        <v>4.174437666666667</v>
       </c>
       <c r="N10">
-        <v>20.891558</v>
+        <v>12.523313</v>
       </c>
       <c r="O10">
-        <v>0.6696077852558425</v>
+        <v>0.5561241985292896</v>
       </c>
       <c r="P10">
-        <v>0.6696077852558425</v>
+        <v>0.5561241985292896</v>
       </c>
       <c r="Q10">
-        <v>343.0875536501795</v>
+        <v>571.1624842500732</v>
       </c>
       <c r="R10">
-        <v>3087.787982851616</v>
+        <v>5140.462358250659</v>
       </c>
       <c r="S10">
-        <v>0.4463499876083527</v>
+        <v>0.4750709234236932</v>
       </c>
       <c r="T10">
-        <v>0.4463499876083527</v>
+        <v>0.4750709234236932</v>
       </c>
     </row>
   </sheetData>
